--- a/biology/Médecine/1150_en_santé_et_médecine/1150_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1150_en_santé_et_médecine/1150_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1150_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1150_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1150 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1150_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1150_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Année possible de la fondation de la léproserie Saint-Rémi à Saint-Jacques-d'Aliermont, au diocèse de Rouen, en Normandie[1].
-Fondation de l'hôpital St. Margaret à Gloucester en Angleterre, établissement qui sera converti plus tard en maisons d'aumône[2].
-À Auffay, en Normandie, « il est fait mention d'un hôpital pour les indigents[3] ».
-Vers 1150 : fondation de la léproserie Saint-Clair et Saint-Blaise de Lisieux en Normandie[1].
-1150-1152 : Saint-Gilbert fait adjoindre un hôpital et une léproserie à l'abbaye qu'il est en train de fonder à Neuffontaines en Bourbonnais[4].
-1150-1153[5] (1151[6]) : Pierre Ier, vicomte de Béarn, fonde à Ordios, entre Bordeaux et Ostabat, sur le chemin de Saint-Jacques, un hôpital de pèlerins  qui fonctionnera encore en 1739.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Année possible de la fondation de la léproserie Saint-Rémi à Saint-Jacques-d'Aliermont, au diocèse de Rouen, en Normandie.
+Fondation de l'hôpital St. Margaret à Gloucester en Angleterre, établissement qui sera converti plus tard en maisons d'aumône.
+À Auffay, en Normandie, « il est fait mention d'un hôpital pour les indigents ».
+Vers 1150 : fondation de la léproserie Saint-Clair et Saint-Blaise de Lisieux en Normandie.
+1150-1152 : Saint-Gilbert fait adjoindre un hôpital et une léproserie à l'abbaye qu'il est en train de fonder à Neuffontaines en Bourbonnais.
+1150-1153 (1151) : Pierre Ier, vicomte de Béarn, fonde à Ordios, entre Bordeaux et Ostabat, sur le chemin de Saint-Jacques, un hôpital de pèlerins  qui fonctionnera encore en 1739.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1150_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1150_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vers 1150 : l'héritier de Penthièvre meurt lépreux à Lamballe sans avoir été interné[7].
-Vers 1150-1155 : naissance d'Alpais de Cudot (morte en 1211), mystique chrétienne, canonisée et considérée par l'Église catholique comme miraculeusement guérie de la lèpre[8],[9].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vers 1150 : l'héritier de Penthièvre meurt lépreux à Lamballe sans avoir été interné.
+Vers 1150-1155 : naissance d'Alpais de Cudot (morte en 1211), mystique chrétienne, canonisée et considérée par l'Église catholique comme miraculeusement guérie de la lèpre,.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1150_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1150_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1128-1150 : fl. Mauger, médecin à Bourbourg, en Flandre[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1128-1150 : fl. Mauger, médecin à Bourbourg, en Flandre.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1150_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1150_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Samuel ibn Tibbon (mort en 1230), médecin et philosophe juif provençal, surtout connu comme traducteur du Guide des égarés de  Maïmonide[11].
-Entre 1145 et 1150 : Rigord (mort entre 1207 et 1209), moine de Saint-Denis, médecin et historien[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Samuel ibn Tibbon (mort en 1230), médecin et philosophe juif provençal, surtout connu comme traducteur du Guide des égarés de  Maïmonide.
+Entre 1145 et 1150 : Rigord (mort entre 1207 et 1209), moine de Saint-Denis, médecin et historien.</t>
         </is>
       </c>
     </row>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1150_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1150_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,9 +658,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Obizon (né à une date inconnue), médecin du roi de France Louis VI le Gros[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Obizon (né à une date inconnue), médecin du roi de France Louis VI le Gros.</t>
         </is>
       </c>
     </row>
